--- a/CPS 315/bisection method.xlsx
+++ b/CPS 315/bisection method.xlsx
@@ -169,8 +169,8 @@
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1192121" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -206,6 +206,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -314,7 +315,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -632,12 +633,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
